--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D454F-CA9F-4422-815E-43C36BCB0242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD070C-7DB0-48D8-8E08-684B1AA69544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
+    <sheet name="TestInvalidLoginDP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>erazchow@gmail.com</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>Eraz Chowdhury</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>Invalid login</t>
   </si>
 </sst>
 </file>
@@ -410,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C4812F-60A5-458B-AD88-BA2877EC8D11}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +443,37 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624E2358-2D0F-4EF2-8FEC-C49CB1F382C1}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F6910FBF-CA2D-4468-82B0-CA307DD18E9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD070C-7DB0-48D8-8E08-684B1AA69544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EF608-8A8D-4328-AB52-23716FA8B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
     <sheet name="TestInvalidLoginDP" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCreatingEventDP" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCreatingCompanyDP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>erazchow@gmail.com</t>
   </si>
@@ -52,6 +54,36 @@
   </si>
   <si>
     <t>Invalid login</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>123 Sesame St</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>211-111-1111</t>
+  </si>
+  <si>
+    <t>Where's my diet Dr. Kelp?</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C:/Users/jadeh/Pictures/SteamPFP's/eraz_fish.jpg</t>
   </si>
 </sst>
 </file>
@@ -418,7 +450,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624E2358-2D0F-4EF2-8FEC-C49CB1F382C1}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -476,4 +508,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEA9915-628B-4174-B47E-A9EFB9AADF32}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{883B5824-2AFE-4002-A5E1-AB5271EBE250}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C832594B-576D-415B-9B19-A427ED5FFE79}">
+  <dimension ref="A2:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{64AC3DF7-701B-4472-B03A-8C2CA46E821D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EF608-8A8D-4328-AB52-23716FA8B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755E357-F820-4400-8650-DF9B088BAAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="782" firstSheet="1" activeTab="2" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
     <sheet name="TestInvalidLoginDP" sheetId="2" r:id="rId2"/>
     <sheet name="TestCreatingEventDP" sheetId="3" r:id="rId3"/>
     <sheet name="TestCreatingCompanyDP" sheetId="4" r:id="rId4"/>
+    <sheet name="TestCreatingContactDP" sheetId="5" r:id="rId5"/>
+    <sheet name="TestCreatingDealDP" sheetId="6" r:id="rId6"/>
+    <sheet name="TestCreatingTaskDP" sheetId="7" r:id="rId7"/>
+    <sheet name="TestCreateTaskInvalidCompDP" sheetId="8" r:id="rId8"/>
+    <sheet name="TestCreatingCallDP" sheetId="9" r:id="rId9"/>
+    <sheet name="TestDeletingContactDP" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>erazchow@gmail.com</t>
   </si>
@@ -84,6 +90,72 @@
   </si>
   <si>
     <t>C:/Users/jadeh/Pictures/SteamPFP's/eraz_fish.jpg</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Krusty Krab Pizza</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Make a krabby patty</t>
+  </si>
+  <si>
+    <t>Double Triple Bossy Deluxe, on a raft, four-by-four animal-style, extra shingles with a shimmy and a squeeze, light axle grease, make it cry, burn it, and let it swim.</t>
+  </si>
+  <si>
+    <t>Make a pretty patty</t>
+  </si>
+  <si>
+    <t>Make a nasty patty</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>Completion must be between 0 and 100</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Peter Griffin</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Krusty Krab Opening</t>
+  </si>
+  <si>
+    <t>Bikini Bottom</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
   </si>
 </sst>
 </file>
@@ -477,6 +549,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85729472-C7AB-483C-BF50-3F3828DD8DE6}">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0FC7D110-8591-4896-9FF7-BF633DAF575C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624E2358-2D0F-4EF2-8FEC-C49CB1F382C1}">
   <dimension ref="A2:C2"/>
@@ -512,7 +622,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEA9915-628B-4174-B47E-A9EFB9AADF32}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{883B5824-2AFE-4002-A5E1-AB5271EBE250}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C832594B-576D-415B-9B19-A427ED5FFE79}">
+  <dimension ref="A2:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
@@ -523,28 +674,58 @@
     <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{883B5824-2AFE-4002-A5E1-AB5271EBE250}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{64AC3DF7-701B-4472-B03A-8C2CA46E821D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C832594B-576D-415B-9B19-A427ED5FFE79}">
-  <dimension ref="A2:L2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B9C9C0-1EE5-43F7-93E4-8654525B2BB3}">
+  <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +733,7 @@
     <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,39 +741,188 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{64AC3DF7-701B-4472-B03A-8C2CA46E821D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E2520669-1315-48AC-A502-D253E25C5AE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA55A0A-208A-486E-B857-A02E53378EBD}">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4426368F-963D-4209-8C57-A4260CB77F86}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF58B0D3-69A9-493B-9897-88B4EFAF3D12}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{694F13EA-50FA-4CA9-BC79-0B917E68923C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E9734D-29B5-4955-A483-E1E2676BDF8B}">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{409DDC7B-BCA4-41DB-905E-2F3B13352586}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{065DEB41-C471-454B-862B-3D1C47058678}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994648DD-42FE-4243-9B3E-02E05E5B3172}">
+  <dimension ref="A2:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F48612A8-3D94-455F-A60B-CEFE32C99970}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755E357-F820-4400-8650-DF9B088BAAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5484C034-4E0B-4BE3-BA2E-B149267ABDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="782" firstSheet="1" activeTab="2" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="782" firstSheet="5" activeTab="10" xr2:uid="{A5DDD877-858E-4744-9734-972BFD299F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="TestCreateTaskInvalidCompDP" sheetId="8" r:id="rId8"/>
     <sheet name="TestCreatingCallDP" sheetId="9" r:id="rId9"/>
     <sheet name="TestDeletingContactDP" sheetId="10" r:id="rId10"/>
+    <sheet name="TestCreatingCaseDP" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>erazchow@gmail.com</t>
   </si>
@@ -156,6 +157,9 @@
   </si>
   <si>
     <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>placeholder title</t>
   </si>
 </sst>
 </file>
@@ -554,7 +558,7 @@
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +586,41 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{0FC7D110-8591-4896-9FF7-BF633DAF575C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE10FD4-1971-4709-9DE3-1499D058FB7E}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{733E3D8E-1CD7-4A20-8C96-D8018D66A2B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -624,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEA9915-628B-4174-B47E-A9EFB9AADF32}">
   <dimension ref="A2:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
